--- a/src/test/java/com/tmb/dataproviders/inputexcels/1_RunManager.xlsx
+++ b/src/test/java/com/tmb/dataproviders/inputexcels/1_RunManager.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hensi\IdeaProjects\FrameWork1\src\test\java\com\tmb\dataproviders\inputexcels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD285B59-D1E1-4C6F-968F-AFADE6D073D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C528CA-39C7-425E-8C57-AD6BF6B8F5C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RunManager" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>TestName</t>
   </si>
@@ -469,56 +468,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91F5FF38-B444-4FE3-9223-599CD02E2E73}">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/src/test/java/com/tmb/dataproviders/inputexcels/1_RunManager.xlsx
+++ b/src/test/java/com/tmb/dataproviders/inputexcels/1_RunManager.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hensi\IdeaProjects\FrameWork1\src\test\java\com\tmb\dataproviders\inputexcels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C528CA-39C7-425E-8C57-AD6BF6B8F5C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5366725D-3977-468F-85AF-C4A63FA2B087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>TestName</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>Second test case of Home Page</t>
-  </si>
-  <si>
-    <t>Yes</t>
   </si>
   <si>
     <t>yes</t>
@@ -399,7 +396,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -422,13 +419,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -439,7 +436,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -461,7 +458,7 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
